--- a/data/trans_dic/P1402-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1402-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.07379948339191923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09068742618959554</v>
+        <v>0.09068742618959551</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01928603218400428</v>
@@ -685,7 +685,7 @@
         <v>0.04638878297928967</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03281302589110263</v>
+        <v>0.03281302589110262</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03882786948680072</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03394317509303332</v>
+        <v>0.03394216645099192</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02375308354125927</v>
+        <v>0.02226670249468468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05169681795216439</v>
+        <v>0.05093013406205166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07037206651584373</v>
+        <v>0.07011695428721409</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007024074314968894</v>
+        <v>0.007128435810658741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01724929085301346</v>
+        <v>0.01858466541739657</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02673521699170991</v>
+        <v>0.0258016857881163</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02192189908474953</v>
+        <v>0.02238604467614967</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0271252909540701</v>
+        <v>0.02640614743122499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02470365712933621</v>
+        <v>0.02445784923687334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04361297276272304</v>
+        <v>0.04619027697880825</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05114375961752483</v>
+        <v>0.05089223270084415</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07404560858416241</v>
+        <v>0.07411378624391401</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06659443531500937</v>
+        <v>0.06332896572132039</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1043972227922454</v>
+        <v>0.1066073572472809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1173081402383956</v>
+        <v>0.1174869355493619</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03972608573541002</v>
+        <v>0.04035020664472491</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06251383027817314</v>
+        <v>0.06123156350655694</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07690530959002095</v>
+        <v>0.07415277998769225</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04710526688345631</v>
+        <v>0.04738435218315847</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05620872155552688</v>
+        <v>0.05366587101499803</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05613530438243231</v>
+        <v>0.0527594879024212</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08163757335102968</v>
+        <v>0.08275657932881768</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07885471036434663</v>
+        <v>0.07980272600322472</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07140801918881957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08643595187737207</v>
+        <v>0.08643595187737206</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02260690515710565</v>
@@ -833,7 +833,7 @@
         <v>0.05065789815339299</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05741602949984664</v>
+        <v>0.05741602949984663</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03041484144624709</v>
+        <v>0.02978931397402229</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03576828709650765</v>
+        <v>0.0342812152396656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04819165100326446</v>
+        <v>0.04833868777599347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06588371400768908</v>
+        <v>0.06374400713059059</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01035948938240143</v>
+        <v>0.009079443336404605</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01214248214567247</v>
+        <v>0.01240879726105617</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01508925167200441</v>
+        <v>0.01468948456347731</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01392988333860435</v>
+        <v>0.01481452870116424</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02354813763533146</v>
+        <v>0.02316083948856858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02877999349781556</v>
+        <v>0.02971743378635917</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0349836144421722</v>
+        <v>0.03587527540978253</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04601905998745053</v>
+        <v>0.04466351277934484</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07213386787416855</v>
+        <v>0.07251183068979394</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07893578547158668</v>
+        <v>0.07932096809095543</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1016471465322311</v>
+        <v>0.1034324606819326</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1098013665494794</v>
+        <v>0.1122259020508543</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04471207921343159</v>
+        <v>0.04375768833042755</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05549363611747073</v>
+        <v>0.05081052070467028</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06032177147884806</v>
+        <v>0.05617787261094666</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03768000888319577</v>
+        <v>0.03773794337579998</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05136161726945727</v>
+        <v>0.05202027015918189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06063079620552023</v>
+        <v>0.0598991591530334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07012759917251409</v>
+        <v>0.068285223595153</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07235745095990243</v>
+        <v>0.07252270722767282</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03436150282473042</v>
+        <v>0.03658634932972499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0897600349685925</v>
+        <v>0.09044784757161421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07821768420938187</v>
+        <v>0.07911364416008808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08879511693418816</v>
+        <v>0.09083683079032588</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04643455509349925</v>
+        <v>0.04785826573854054</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03605284613338229</v>
+        <v>0.03744503777716723</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02892809837295913</v>
+        <v>0.02941247831690079</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06836988884606492</v>
+        <v>0.07018339338851658</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0426625600420296</v>
+        <v>0.04289781235470637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08006399303507453</v>
+        <v>0.08092974134849028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07071816137800474</v>
+        <v>0.06946729898846021</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09155870572343808</v>
+        <v>0.09060667901514466</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07111913668897699</v>
+        <v>0.07148460060498907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1444252368916092</v>
+        <v>0.1474254238867795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1299862605298888</v>
+        <v>0.1327557602451638</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1437753246144119</v>
+        <v>0.1457984051047108</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1363114732704785</v>
+        <v>0.1283202490213106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1002596289028813</v>
+        <v>0.09833417097839817</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1154538669765591</v>
+        <v>0.1132595897807039</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.136011245315387</v>
+        <v>0.1403160051994704</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07618902176338423</v>
+        <v>0.07862294699183385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1202993273229765</v>
+        <v>0.1242859786125958</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1149141588765028</v>
+        <v>0.1146818947988626</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1324888138022066</v>
+        <v>0.133523555617509</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.07338049676633358</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09105656869862304</v>
+        <v>0.09105656869862301</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06200213267528339</v>
+        <v>0.06061220668363657</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07303788373545399</v>
+        <v>0.07365288136087965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08161760214551551</v>
+        <v>0.08059732292780653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09784383955340384</v>
+        <v>0.09836136455200059</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03273571331004475</v>
+        <v>0.03217456060680341</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04263407667784908</v>
+        <v>0.04127081627534371</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02693970907227236</v>
+        <v>0.02686792473953131</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04811623300552623</v>
+        <v>0.04746129571068685</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05369121895549395</v>
+        <v>0.05498467877864307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06449837104235062</v>
+        <v>0.06522445699442206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06243535385770048</v>
+        <v>0.06199532964393536</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08090862550009589</v>
+        <v>0.07990750815899293</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09212555692143819</v>
+        <v>0.09047330031198057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1083184873426402</v>
+        <v>0.1086350727020989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1165777668634917</v>
+        <v>0.1163162029899441</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1328853294763449</v>
+        <v>0.1325361564378015</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06489885042727396</v>
+        <v>0.06427903805452562</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07406007121089549</v>
+        <v>0.07616383100537266</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05538390561821045</v>
+        <v>0.05533387808061423</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07156507766004516</v>
+        <v>0.07183280209907289</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07604070622943475</v>
+        <v>0.07631755060068514</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08916258489218139</v>
+        <v>0.08966840536852988</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08489823880319093</v>
+        <v>0.08700380392954382</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1026607399620679</v>
+        <v>0.1022465518639739</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1115678733127744</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08531281632639588</v>
+        <v>0.08531281632639587</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06164084281029523</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04159168617854452</v>
+        <v>0.04038645313611721</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04944841842319211</v>
+        <v>0.04890746543076393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09018033821424677</v>
+        <v>0.08688515451094764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06625322655981418</v>
+        <v>0.06809565714221864</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04369850382368839</v>
+        <v>0.04370905167202439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0755588683519296</v>
+        <v>0.07310235032172265</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0764655156554596</v>
+        <v>0.07715721663702241</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1003094148332854</v>
+        <v>0.09991947110951802</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04722174586909445</v>
+        <v>0.04759408681988491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06949342809897485</v>
+        <v>0.07101348476437885</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08943210710927854</v>
+        <v>0.08796543637872682</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09007054909192265</v>
+        <v>0.09028695996713672</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09412610324732189</v>
+        <v>0.09032486951082211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1001615492668061</v>
+        <v>0.09532146170236083</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1386895539952295</v>
+        <v>0.1361958498646616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1097603127117064</v>
+        <v>0.1098538144316756</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08592286659446145</v>
+        <v>0.08483343693715092</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1185177722799212</v>
+        <v>0.1188057393620986</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1225532032145972</v>
+        <v>0.1217935004992967</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1313111307360404</v>
+        <v>0.132747507893268</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07971488994106279</v>
+        <v>0.07982036921277796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1033421519299739</v>
+        <v>0.1028183663809222</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1201754212076823</v>
+        <v>0.1225019643107826</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1163013758264831</v>
+        <v>0.1161807670330887</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.1158397209565505</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09080599696858524</v>
+        <v>0.0908059969685852</v>
       </c>
     </row>
     <row r="20">
@@ -1389,37 +1389,37 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.007287643400929588</v>
+        <v>0.007279421054285072</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003559051545721522</v>
+        <v>0.003907189945162777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002127702143688217</v>
+        <v>0.002231526879001121</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09101554840179303</v>
+        <v>0.08963654063629944</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1206655479861493</v>
+        <v>0.1194720556810767</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1224430559225185</v>
+        <v>0.1209607768405153</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09864794842144392</v>
+        <v>0.09911526654412775</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0717790965622401</v>
+        <v>0.07354107010489316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1002229599677385</v>
+        <v>0.09902872490286772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09869047935548753</v>
+        <v>0.09962179934033288</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07838137982114332</v>
+        <v>0.07868333821146344</v>
       </c>
     </row>
     <row r="21">
@@ -1431,37 +1431,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.05199840928085417</v>
+        <v>0.04731050954932282</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03222119649302631</v>
+        <v>0.03272747527411063</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02888872020012986</v>
+        <v>0.02622889038794411</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1257063958114022</v>
+        <v>0.1238998990277428</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1630303274028948</v>
+        <v>0.1611257596564833</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.166524020942306</v>
+        <v>0.167015314013199</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.13167589981758</v>
+        <v>0.1317520229107034</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1007692630321046</v>
+        <v>0.1026823486216888</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1362999436166604</v>
+        <v>0.1355566018855535</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1351342903106032</v>
+        <v>0.1352531050930597</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1053121149080444</v>
+        <v>0.1061831974993083</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.08384563728827479</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07925459952610676</v>
+        <v>0.07925459952610679</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.06237906898256784</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04882129938456272</v>
+        <v>0.04903984664824821</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06636609124341053</v>
+        <v>0.06591308934152766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07888850927361492</v>
+        <v>0.07847903963928277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08613475234247697</v>
+        <v>0.08639059987270589</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05927402270372324</v>
+        <v>0.05961966421506197</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07801297945870458</v>
+        <v>0.07776846372885243</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07486545115151749</v>
+        <v>0.07532549406271249</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07274114309110492</v>
+        <v>0.07291546029808513</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05693659478186309</v>
+        <v>0.05680808253877027</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07346626765143953</v>
+        <v>0.07409043333957643</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07895800360733582</v>
+        <v>0.07926592828895837</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08095602693132765</v>
+        <v>0.08141393867994262</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06559628694094999</v>
+        <v>0.06460225425032161</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08456780048978299</v>
+        <v>0.08450813430520769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09744656511702887</v>
+        <v>0.09855573632356845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1039147868247301</v>
+        <v>0.1052056817479123</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07691185884418028</v>
+        <v>0.07732730631927856</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09641050085750118</v>
+        <v>0.09573782422918659</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09432005533508292</v>
+        <v>0.0950873194570932</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08638375534004712</v>
+        <v>0.08663069580667417</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06851863659258853</v>
+        <v>0.06813355744589021</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08680445807791214</v>
+        <v>0.08741592643892868</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09248805620130707</v>
+        <v>0.09257626144534324</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09281781470305135</v>
+        <v>0.09257514429201058</v>
       </c>
     </row>
     <row r="25">
@@ -1873,37 +1873,37 @@
         <v>16081</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10385</v>
+        <v>9735</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22183</v>
+        <v>21854</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38748</v>
+        <v>38608</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2154</v>
+        <v>2186</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5424</v>
+        <v>5844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9279</v>
+        <v>8955</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10692</v>
+        <v>10918</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21170</v>
+        <v>20609</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18569</v>
+        <v>18384</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>33850</v>
+        <v>35850</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>53105</v>
+        <v>52844</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35081</v>
+        <v>35113</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29116</v>
+        <v>27688</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44796</v>
+        <v>45744</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64592</v>
+        <v>64690</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12183</v>
+        <v>12375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19658</v>
+        <v>19255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26690</v>
+        <v>25735</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22975</v>
+        <v>23111</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43868</v>
+        <v>41884</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>42195</v>
+        <v>39657</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63363</v>
+        <v>64231</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>81878</v>
+        <v>82863</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11160</v>
+        <v>10931</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14980</v>
+        <v>14357</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18179</v>
+        <v>18235</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>31836</v>
+        <v>30802</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3852</v>
+        <v>3376</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4104</v>
+        <v>4194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5617</v>
+        <v>5468</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5885</v>
+        <v>6259</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17397</v>
+        <v>17111</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21781</v>
+        <v>22490</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26220</v>
+        <v>26889</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>41680</v>
+        <v>40452</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26468</v>
+        <v>26607</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33058</v>
+        <v>33219</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38344</v>
+        <v>39018</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>53057</v>
+        <v>54229</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16627</v>
+        <v>16272</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18757</v>
+        <v>17175</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22456</v>
+        <v>20914</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15920</v>
+        <v>15944</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37946</v>
+        <v>38433</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>45886</v>
+        <v>45332</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52561</v>
+        <v>51180</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>65534</v>
+        <v>65684</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18637</v>
+        <v>19844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>56496</v>
+        <v>56929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40823</v>
+        <v>41291</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>41800</v>
+        <v>42761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7791</v>
+        <v>8030</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9378</v>
+        <v>9741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4806</v>
+        <v>4886</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12819</v>
+        <v>13159</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30298</v>
+        <v>30465</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>71220</v>
+        <v>71991</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48657</v>
+        <v>47796</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>60268</v>
+        <v>59641</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38574</v>
+        <v>38772</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>90903</v>
+        <v>92792</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67842</v>
+        <v>69287</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>67681</v>
+        <v>68634</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22871</v>
+        <v>21530</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26080</v>
+        <v>25580</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19180</v>
+        <v>18815</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25502</v>
+        <v>26309</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54107</v>
+        <v>55836</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>107012</v>
+        <v>110558</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>79065</v>
+        <v>78905</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>87210</v>
+        <v>87891</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>76779</v>
+        <v>75058</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>84652</v>
+        <v>85364</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>93831</v>
+        <v>92658</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>110591</v>
+        <v>111176</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23383</v>
+        <v>22982</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32603</v>
+        <v>31561</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22249</v>
+        <v>22190</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>41438</v>
+        <v>40874</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>104839</v>
+        <v>107364</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>124078</v>
+        <v>125474</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>123342</v>
+        <v>122473</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>161129</v>
+        <v>159135</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>114082</v>
+        <v>112036</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>125542</v>
+        <v>125909</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>134022</v>
+        <v>133722</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>150197</v>
+        <v>149803</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>46356</v>
+        <v>45914</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>56635</v>
+        <v>58244</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>45740</v>
+        <v>45699</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>61633</v>
+        <v>61863</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>148479</v>
+        <v>149019</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>171525</v>
+        <v>172498</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>167718</v>
+        <v>171877</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>204448</v>
+        <v>203623</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14580</v>
+        <v>14158</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25248</v>
+        <v>24972</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>55975</v>
+        <v>53930</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>37494</v>
+        <v>38537</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24854</v>
+        <v>24860</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>57443</v>
+        <v>55576</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>56450</v>
+        <v>56961</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>83270</v>
+        <v>82946</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43411</v>
+        <v>43754</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>88315</v>
+        <v>90247</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>121534</v>
+        <v>119541</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>125743</v>
+        <v>126045</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32996</v>
+        <v>31664</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>51142</v>
+        <v>48671</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>86085</v>
+        <v>84538</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62116</v>
+        <v>62168</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48869</v>
+        <v>48249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>90103</v>
+        <v>90322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>90474</v>
+        <v>89913</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>109005</v>
+        <v>110197</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>73282</v>
+        <v>73379</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>131332</v>
+        <v>130666</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>163312</v>
+        <v>166474</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>162362</v>
+        <v>162194</v>
       </c>
     </row>
     <row r="24">
@@ -2771,37 +2771,37 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>113657</v>
+        <v>111935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>133860</v>
+        <v>132536</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>132486</v>
+        <v>130883</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>83179</v>
+        <v>83573</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>111039</v>
+        <v>113765</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>137930</v>
+        <v>136287</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>135124</v>
+        <v>136399</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>84685</v>
+        <v>85011</v>
       </c>
     </row>
     <row r="27">
@@ -2813,37 +2813,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>13877</v>
+        <v>12626</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9252</v>
+        <v>9398</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6853</v>
+        <v>6222</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>156977</v>
+        <v>154721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>180858</v>
+        <v>178745</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>180183</v>
+        <v>180715</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>111028</v>
+        <v>111093</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>155886</v>
+        <v>158845</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>187580</v>
+        <v>186557</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>185022</v>
+        <v>185184</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>113782</v>
+        <v>114723</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>159655</v>
+        <v>160370</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>227099</v>
+        <v>225549</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>267095</v>
+        <v>265708</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>296131</v>
+        <v>297011</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>200235</v>
+        <v>201403</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>276705</v>
+        <v>275838</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>264395</v>
+        <v>266019</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>264214</v>
+        <v>264847</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>378532</v>
+        <v>377678</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>511974</v>
+        <v>516323</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>546178</v>
+        <v>548308</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>572379</v>
+        <v>575617</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>214512</v>
+        <v>211262</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>289383</v>
+        <v>289179</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>329927</v>
+        <v>333682</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>357259</v>
+        <v>361697</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>259818</v>
+        <v>261221</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>341960</v>
+        <v>339574</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>333100</v>
+        <v>335810</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>313767</v>
+        <v>314664</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>455533</v>
+        <v>452973</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>604925</v>
+        <v>609186</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>639769</v>
+        <v>640379</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>656245</v>
+        <v>654529</v>
       </c>
     </row>
     <row r="32">
